--- a/public/database/Usuarios.xlsx
+++ b/public/database/Usuarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio Aguilera\Desktop\Trabajo (SPA)\ProyectoReact\public\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio Aguilera\Desktop\Trabajo (SPA)\rosmiya\public\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D847FC1E-A8CB-41CE-8458-F001B1DAC2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77256896-D98F-4766-933A-99F687C4F95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D68F4056-0D45-4BC6-8B04-16C26C5398A7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>usuario</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>Maicita</t>
+  </si>
+  <si>
+    <t>yane</t>
+  </si>
+  <si>
+    <t>$2b$10$zFA0mn/jvB3DPE2UpcmCH.myv6ZerFjelthq1NYHRJtrFMZJBUNba</t>
+  </si>
+  <si>
+    <t>Yaneria Sanchez</t>
+  </si>
+  <si>
+    <t>Yane</t>
   </si>
 </sst>
 </file>
@@ -441,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9B6F27-5EFA-4ABC-AF87-8DE32F38EB28}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,6 +521,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
